--- a/pilot-study/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/pilot-study/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,17 +6,19 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_spearman_3" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_spearman_35" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_spearman_42" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_12" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_14" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_15" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_23" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_42" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="51">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -25,10 +27,10 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
-    <t>Intrinsic Motivation</t>
+    <t>Interest/Enjoyment</t>
   </si>
   <si>
     <t>Matrix of t-test value</t>
@@ -52,13 +54,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>GiS/K-IntrM</t>
+    <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified</t>
   </si>
   <si>
     <t>UserID</t>
@@ -82,6 +84,9 @@
     <t>Grupo Hélio</t>
   </si>
   <si>
+    <t>Grupo Hades</t>
+  </si>
+  <si>
     <t>Grupo Zeus</t>
   </si>
   <si>
@@ -103,22 +108,55 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in Master using the method: spearman</t>
   </si>
   <si>
-    <t>Pressure/Tension</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in Master</t>
   </si>
   <si>
-    <t>GiS/K-Prs/T</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in Master</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in ont-gamified.Apprentice</t>
+    <t>non-gamified</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in ont-gamified.Apprentice</t>
+    <t>GroupC</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Apprentice using the method: spearman</t>
+    <t>GroupB</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>GroupA</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Perceived Choice</t>
+  </si>
+  <si>
+    <t>GiS/K-PrcvC</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t>Effort/Importance</t>
@@ -127,25 +165,10 @@
     <t>GiS/K-Eff/I</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>non-gamified</t>
-  </si>
-  <si>
-    <t>GroupB</t>
-  </si>
-  <si>
-    <t>GroupC</t>
-  </si>
-  <si>
-    <t>GroupA</t>
-  </si>
-  <si>
-    <t/>
+    <t>Data full source for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Apprentice</t>
   </si>
 </sst>
 </file>
@@ -153,13 +176,949 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="220">
+  <fonts count="366">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1608,7 +2567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="696">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2099,6 +3058,332 @@
     <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2158,7 +3443,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.5068545991247176</v>
+        <v>-0.512283855250428</v>
       </c>
     </row>
     <row r="7">
@@ -2166,7 +3451,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.5068545991247176</v>
+        <v>-0.512283855250428</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
@@ -2204,7 +3489,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-1.7639305367781704</v>
+        <v>-1.8862986122112608</v>
       </c>
     </row>
     <row r="13">
@@ -2212,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-1.7639305367781704</v>
+        <v>-1.8862986122112608</v>
       </c>
       <c r="C13" t="e" s="52">
         <v>#DIV/0!</v>
@@ -2250,7 +3535,7 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.1115690992602656</v>
+        <v>0.08860041572846138</v>
       </c>
     </row>
     <row r="19">
@@ -2258,7 +3543,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.1115690992602656</v>
+        <v>0.08860041572846138</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>-0.0</v>
@@ -2299,16 +3584,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.8486868707740405</v>
+        <v>-0.8394011011958153</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.5068545991247176</v>
+        <v>-0.512283855250428</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.13365950937010548</v>
+        <v>0.08727734882533793</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.1115690992602656</v>
+        <v>0.08860041572846138</v>
       </c>
     </row>
     <row r="25">
@@ -2336,95 +3621,98 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>1.2745279552051365</v>
+        <v>1.9055652511372148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>-0.46974270057223855</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>0.703122893490451</v>
+        <v>0.3991938673511699</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>2.797689028281252</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>0.6825024983778668</v>
+        <v>1.2733257983058535</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>7.3218745539291925</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.739050752349173</v>
+        <v>2.3995832302498252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>7.316986477963063</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>1.332166901264101</v>
+        <v>-1.2851216362168434</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>7.3218745539291925</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>0.42485437939802007</v>
+        <v>1.4744559960710024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>2.797689028281252</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>-0.051365907742741024</v>
+        <v>0.5529952204217218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>6.6027005735701705</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>-0.19461194636708312</v>
+        <v>-0.22343251552657223</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="113">
-        <v>-1.6574667686308642</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B37" t="n" s="114">
-        <v>0.24078051736168585</v>
+        <v>0.0020687155690903847</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="113">
-        <v>10.249590604752395</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="B38" t="n" s="114">
-        <v>0.20490388741018775</v>
+        <v>0.12501694921220619</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="113">
-        <v>-2.595256584071593</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="B39" t="n" s="114">
-        <v>1.3837694218399965</v>
+        <v>0.2568859466255362</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>1</v>
+      <c r="A40" t="n" s="113">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B40" t="n" s="114">
+        <v>3.1382402906974827</v>
       </c>
     </row>
     <row r="41">
@@ -2433,59 +3721,41 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="118">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="132">
+    <row r="44">
+      <c r="A44" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B43" t="s" s="132">
+      <c r="B44" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C43" t="s" s="132">
+      <c r="C44" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D43" t="s" s="132">
+      <c r="D44" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E43" t="s" s="132">
+      <c r="E44" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F43" t="s" s="132">
+      <c r="F44" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="G43" t="s" s="132">
+      <c r="G44" t="s" s="132">
         <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="133">
-        <v>10120.0</v>
-      </c>
-      <c r="B44" t="s" s="134">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s" s="137">
-        <v>27</v>
-      </c>
-      <c r="F44" t="n" s="138">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G44" t="n" s="139">
-        <v>1.2745279552051365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="133">
-        <v>10126.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B45" t="s" s="134">
         <v>20</v>
@@ -2497,18 +3767,18 @@
         <v>26</v>
       </c>
       <c r="E45" t="s" s="137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F45" t="n" s="138">
-        <v>-0.46974270057223855</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G45" t="n" s="139">
-        <v>0.703122893490451</v>
+        <v>1.9055652511372148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="133">
-        <v>10131.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B46" t="s" s="134">
         <v>20</v>
@@ -2520,133 +3790,133 @@
         <v>26</v>
       </c>
       <c r="E46" t="s" s="137">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46" t="n" s="138">
-        <v>2.797689028281252</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="G46" t="n" s="139">
-        <v>0.6825024983778668</v>
+        <v>0.3991938673511699</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="133">
-        <v>10134.0</v>
+        <v>10126.0</v>
       </c>
       <c r="B47" t="s" s="134">
         <v>20</v>
       </c>
       <c r="C47" t="s" s="135">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s" s="136">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s" s="137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F47" t="n" s="138">
-        <v>7.3218745539291925</v>
+        <v>2.219439428362677</v>
       </c>
       <c r="G47" t="n" s="139">
-        <v>-0.739050752349173</v>
+        <v>1.2733257983058535</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10137.0</v>
+        <v>10131.0</v>
       </c>
       <c r="B48" t="s" s="134">
         <v>20</v>
       </c>
       <c r="C48" t="s" s="135">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s" s="137">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F48" t="n" s="138">
-        <v>7.316986477963063</v>
+        <v>4.683705113859222</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>1.332166901264101</v>
+        <v>2.3995832302498252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="133">
-        <v>10138.0</v>
+        <v>10134.0</v>
       </c>
       <c r="B49" t="s" s="134">
         <v>20</v>
       </c>
       <c r="C49" t="s" s="135">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s" s="136">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s" s="137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" t="n" s="138">
-        <v>7.3218745539291925</v>
+        <v>4.773535959183306</v>
       </c>
       <c r="G49" t="n" s="139">
-        <v>0.42485437939802007</v>
+        <v>-1.2851216362168434</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="133">
-        <v>10139.0</v>
+        <v>10137.0</v>
       </c>
       <c r="B50" t="s" s="134">
         <v>20</v>
       </c>
       <c r="C50" t="s" s="135">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s" s="136">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s" s="137">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" t="n" s="138">
-        <v>2.797689028281252</v>
+        <v>5.2020388158867235</v>
       </c>
       <c r="G50" t="n" s="139">
-        <v>-0.051365907742741024</v>
+        <v>1.4744559960710024</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="133">
-        <v>10141.0</v>
+        <v>10138.0</v>
       </c>
       <c r="B51" t="s" s="134">
         <v>20</v>
       </c>
       <c r="C51" t="s" s="135">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s" s="136">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s" s="137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F51" t="n" s="138">
-        <v>6.6027005735701705</v>
+        <v>6.387096047687933</v>
       </c>
       <c r="G51" t="n" s="139">
-        <v>-0.19461194636708312</v>
+        <v>0.5529952204217218</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="133">
-        <v>10143.0</v>
+        <v>10139.0</v>
       </c>
       <c r="B52" t="s" s="134">
         <v>20</v>
@@ -2655,44 +3925,44 @@
         <v>23</v>
       </c>
       <c r="D52" t="s" s="136">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s" s="137">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F52" t="n" s="138">
-        <v>-1.6574667686308642</v>
+        <v>5.455703844859729</v>
       </c>
       <c r="G52" t="n" s="139">
-        <v>0.24078051736168585</v>
+        <v>-0.22343251552657223</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="133">
-        <v>10148.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B53" t="s" s="134">
         <v>20</v>
       </c>
       <c r="C53" t="s" s="135">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s" s="136">
         <v>26</v>
       </c>
       <c r="E53" t="s" s="137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F53" t="n" s="138">
-        <v>10.249590604752395</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="G53" t="n" s="139">
-        <v>0.20490388741018775</v>
+        <v>0.0020687155690903847</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="133">
-        <v>10152.0</v>
+        <v>10143.0</v>
       </c>
       <c r="B54" t="s" s="134">
         <v>20</v>
@@ -2701,16 +3971,62 @@
         <v>24</v>
       </c>
       <c r="D54" t="s" s="136">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s" s="137">
         <v>28</v>
       </c>
       <c r="F54" t="n" s="138">
-        <v>-2.595256584071593</v>
+        <v>2.2194394283626773</v>
       </c>
       <c r="G54" t="n" s="139">
-        <v>1.3837694218399965</v>
+        <v>0.12501694921220619</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="133">
+        <v>10148.0</v>
+      </c>
+      <c r="B55" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s" s="135">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F55" t="n" s="138">
+        <v>6.387096047687933</v>
+      </c>
+      <c r="G55" t="n" s="139">
+        <v>0.2568859466255362</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="133">
+        <v>10152.0</v>
+      </c>
+      <c r="B56" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s" s="135">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s" s="137">
+        <v>29</v>
+      </c>
+      <c r="F56" t="n" s="138">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G56" t="n" s="139">
+        <v>3.1382402906974827</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +4054,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="141">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -2762,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="169">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2770,18 +4086,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="170">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="171">
-        <v>0.5548780487804879</v>
+        <v>-0.5797710356524485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="165">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n" s="170">
-        <v>0.5548780487804879</v>
+        <v>-0.5797710356524485</v>
       </c>
       <c r="C7" t="n" s="171">
         <v>1.0</v>
@@ -2808,26 +4124,26 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="189">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="185">
         <v>3</v>
       </c>
-      <c r="B12" t="e" s="190">
-        <v>#DIV/0!</v>
+      <c r="B12" t="n" s="190">
+        <v>1.3421772799999999E8</v>
       </c>
       <c r="C12" t="n" s="191">
-        <v>1.63374961120214</v>
+        <v>-1.4231361339296404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="185">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n" s="190">
-        <v>1.63374961120214</v>
+        <v>-1.4231361339296404</v>
       </c>
       <c r="C13" t="e" s="191">
         <v>#DIV/0!</v>
@@ -2854,7 +4170,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="209">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2862,18 +4178,18 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="210">
-        <v>-0.0</v>
+        <v>1.8488927466117675E-32</v>
       </c>
       <c r="C18" t="n" s="211">
-        <v>0.15343007834316655</v>
+        <v>0.22778395671501586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="205">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n" s="210">
-        <v>0.15343007834316655</v>
+        <v>0.22778395671501586</v>
       </c>
       <c r="C19" t="n" s="211">
         <v>-0.0</v>
@@ -2911,19 +4227,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="225">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n" s="230">
-        <v>-0.2459716488886568</v>
+        <v>-0.9461500532499552</v>
       </c>
       <c r="C24" t="n" s="231">
-        <v>0.5548780487804879</v>
+        <v>-0.5797710356524485</v>
       </c>
       <c r="D24" t="n" s="232">
-        <v>0.9054954350684372</v>
+        <v>0.43776936157549684</v>
       </c>
       <c r="E24" t="n" s="233">
-        <v>0.15343007834316655</v>
+        <v>0.22778395671501586</v>
       </c>
     </row>
     <row r="25">
@@ -2938,7 +4254,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="237">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2946,143 +4262,173 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="251">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="252">
-        <v>-0.46974270057223855</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B29" t="n" s="253">
-        <v>-0.4881027039605078</v>
+        <v>-0.11357294579123278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="252">
-        <v>2.797689028281252</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B30" t="n" s="253">
-        <v>-0.8604688235459803</v>
+        <v>1.9055652511372148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="252">
-        <v>7.3218745539291925</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B31" t="n" s="253">
-        <v>0.34545624662717583</v>
+        <v>0.3991938673511699</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="252">
-        <v>7.316986477963063</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B32" t="n" s="253">
-        <v>-1.2956562305351615</v>
+        <v>0.0020687155690903847</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="252">
-        <v>7.3218745539291925</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B33" t="n" s="253">
-        <v>0.34545624662717583</v>
+        <v>-0.6310088518604511</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="252">
-        <v>2.797689028281252</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B34" t="n" s="253">
-        <v>-0.4881027039605078</v>
+        <v>3.1382402906974827</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="252">
-        <v>-1.6574667686308642</v>
-      </c>
-      <c r="B35" t="n" s="253">
-        <v>-0.059821730393861905</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="252">
-        <v>10.249590604752395</v>
-      </c>
-      <c r="B36" t="n" s="253">
-        <v>0.8453611614877061</v>
+      <c r="A36" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>1</v>
+      <c r="A37" t="s" s="257">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>1</v>
+      <c r="A38" t="s" s="271">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="271">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="271">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="271">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="271">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="271">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s" s="271">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="257">
+      <c r="A39" t="n" s="272">
+        <v>10116.0</v>
+      </c>
+      <c r="B39" t="s" s="273">
         <v>33</v>
       </c>
+      <c r="C39" t="s" s="274">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s" s="275">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s" s="276">
+        <v>36</v>
+      </c>
+      <c r="F39" t="n" s="277">
+        <v>1.5815633838428893</v>
+      </c>
+      <c r="G39" t="n" s="278">
+        <v>-0.11357294579123278</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="271">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s" s="271">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s" s="271">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s" s="271">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s" s="271">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s" s="271">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s" s="271">
-        <v>30</v>
+      <c r="A40" t="n" s="272">
+        <v>10120.0</v>
+      </c>
+      <c r="B40" t="s" s="273">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s" s="274">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="275">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="F40" t="n" s="277">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="278">
+        <v>1.9055652511372148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="272">
-        <v>10126.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B41" t="s" s="273">
         <v>20</v>
       </c>
       <c r="C41" t="s" s="274">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s" s="275">
         <v>26</v>
       </c>
       <c r="E41" t="s" s="276">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n" s="277">
-        <v>-0.46974270057223855</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="G41" t="n" s="278">
-        <v>-0.4881027039605078</v>
+        <v>0.3991938673511699</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="272">
-        <v>10131.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B42" t="s" s="273">
         <v>20</v>
       </c>
       <c r="C42" t="s" s="274">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s" s="275">
         <v>26</v>
@@ -3091,148 +4437,56 @@
         <v>28</v>
       </c>
       <c r="F42" t="n" s="277">
-        <v>2.797689028281252</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="G42" t="n" s="278">
-        <v>-0.8604688235459803</v>
+        <v>0.0020687155690903847</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="272">
-        <v>10134.0</v>
+        <v>10145.0</v>
       </c>
       <c r="B43" t="s" s="273">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s" s="274">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s" s="275">
         <v>26</v>
       </c>
       <c r="E43" t="s" s="276">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F43" t="n" s="277">
-        <v>7.3218745539291925</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="G43" t="n" s="278">
-        <v>0.34545624662717583</v>
+        <v>-0.6310088518604511</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="272">
-        <v>10137.0</v>
+        <v>10152.0</v>
       </c>
       <c r="B44" t="s" s="273">
         <v>20</v>
       </c>
       <c r="C44" t="s" s="274">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s" s="275">
         <v>26</v>
       </c>
       <c r="E44" t="s" s="276">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="n" s="277">
-        <v>7.316986477963063</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G44" t="n" s="278">
-        <v>-1.2956562305351615</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="272">
-        <v>10138.0</v>
-      </c>
-      <c r="B45" t="s" s="273">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s" s="274">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="275">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s" s="276">
-        <v>27</v>
-      </c>
-      <c r="F45" t="n" s="277">
-        <v>7.3218745539291925</v>
-      </c>
-      <c r="G45" t="n" s="278">
-        <v>0.34545624662717583</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="272">
-        <v>10139.0</v>
-      </c>
-      <c r="B46" t="s" s="273">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s" s="274">
-        <v>22</v>
-      </c>
-      <c r="D46" t="s" s="275">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s" s="276">
-        <v>28</v>
-      </c>
-      <c r="F46" t="n" s="277">
-        <v>2.797689028281252</v>
-      </c>
-      <c r="G46" t="n" s="278">
-        <v>-0.4881027039605078</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="272">
-        <v>10143.0</v>
-      </c>
-      <c r="B47" t="s" s="273">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s" s="274">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s" s="275">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s" s="276">
-        <v>27</v>
-      </c>
-      <c r="F47" t="n" s="277">
-        <v>-1.6574667686308642</v>
-      </c>
-      <c r="G47" t="n" s="278">
-        <v>-0.059821730393861905</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="272">
-        <v>10148.0</v>
-      </c>
-      <c r="B48" t="s" s="273">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s" s="274">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s" s="275">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s" s="276">
-        <v>27</v>
-      </c>
-      <c r="F48" t="n" s="277">
-        <v>10.249590604752395</v>
-      </c>
-      <c r="G48" t="n" s="278">
-        <v>0.8453611614877061</v>
+        <v>3.1382402906974827</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +4514,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="280">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -3284,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="308">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3292,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="309">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="310">
         <v>0.5642880936468347</v>
@@ -3300,13 +4554,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="304">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n" s="309">
         <v>0.5642880936468347</v>
       </c>
       <c r="C7" t="n" s="310">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -3330,15 +4584,15 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="328">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="324">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="329">
-        <v>8.21912370089156E7</v>
+      <c r="B12" t="e" s="329">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="330">
         <v>1.183868405501389</v>
@@ -3346,13 +4600,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="324">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n" s="329">
         <v>1.183868405501389</v>
       </c>
-      <c r="C13" t="e" s="330">
-        <v>#DIV/0!</v>
+      <c r="C13" t="n" s="330">
+        <v>8.21912370089156E7</v>
       </c>
     </row>
     <row r="14">
@@ -3376,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="348">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -3384,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="349">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="350">
         <v>0.32172333582430024</v>
@@ -3392,13 +4646,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="344">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n" s="349">
         <v>0.32172333582430024</v>
       </c>
       <c r="C19" t="n" s="350">
-        <v>-0.0</v>
+        <v>3.971862410081728E-24</v>
       </c>
     </row>
     <row r="20">
@@ -3433,7 +4687,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="364">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n" s="369">
         <v>-0.6332368352557238</v>
@@ -3460,7 +4714,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="376">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -3468,47 +4722,47 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="390">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="391">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="B29" t="n" s="392">
-        <v>-0.11852834836594606</v>
+        <v>-2.0523461363759816</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="391">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B30" t="n" s="392">
-        <v>0.04343742692652497</v>
+        <v>-1.785151127196218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="391">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="B31" t="n" s="392">
-        <v>0.693917515693379</v>
+        <v>0.5529952204217218</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="391">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="B32" t="n" s="392">
-        <v>-0.27382809099539945</v>
+        <v>0.3991938673511698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="391">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B33" t="n" s="392">
-        <v>0.693917515693379</v>
+        <v>0.894596760964265</v>
       </c>
     </row>
     <row r="34">
@@ -3523,7 +4777,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="396">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -3546,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="G37" t="s" s="410">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3554,22 +4808,22 @@
         <v>10122.0</v>
       </c>
       <c r="B38" t="s" s="412">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s" s="413">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s" s="414">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s" s="415">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F38" t="n" s="416">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="G38" t="n" s="417">
-        <v>-0.11852834836594606</v>
+        <v>-2.0523461363759816</v>
       </c>
     </row>
     <row r="39">
@@ -3577,22 +4831,22 @@
         <v>10129.0</v>
       </c>
       <c r="B39" t="s" s="412">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s" s="413">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s" s="414">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s" s="415">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F39" t="n" s="416">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G39" t="n" s="417">
-        <v>0.04343742692652497</v>
+        <v>-1.785151127196218</v>
       </c>
     </row>
     <row r="40">
@@ -3600,22 +4854,22 @@
         <v>10130.0</v>
       </c>
       <c r="B40" t="s" s="412">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s" s="413">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s" s="414">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s" s="415">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F40" t="n" s="416">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="G40" t="n" s="417">
-        <v>0.693917515693379</v>
+        <v>0.5529952204217218</v>
       </c>
     </row>
     <row r="41">
@@ -3623,22 +4877,22 @@
         <v>10135.0</v>
       </c>
       <c r="B41" t="s" s="412">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s" s="413">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s" s="414">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s" s="415">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F41" t="n" s="416">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="G41" t="n" s="417">
-        <v>-0.27382809099539945</v>
+        <v>0.3991938673511698</v>
       </c>
     </row>
     <row r="42">
@@ -3646,21 +4900,910 @@
         <v>10146.0</v>
       </c>
       <c r="B42" t="s" s="412">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s" s="413">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s" s="414">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s" s="415">
+        <v>36</v>
+      </c>
+      <c r="F42" t="n" s="416">
+        <v>4.458156643590752</v>
+      </c>
+      <c r="G42" t="n" s="417">
+        <v>0.894596760964265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="419">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="447">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="447">
         <v>42</v>
       </c>
-      <c r="D42" t="s" s="414">
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="443">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="448">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C6" t="n" s="449">
+        <v>-0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="443">
+        <v>42</v>
+      </c>
+      <c r="B7" t="n" s="448">
+        <v>-0.6470588235294118</v>
+      </c>
+      <c r="C7" t="n" s="449">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="467">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="467">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="463">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="468">
+        <v>1.3421772799999999E8</v>
+      </c>
+      <c r="C12" t="n" s="469">
+        <v>-1.697336849583011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="463">
+        <v>42</v>
+      </c>
+      <c r="B13" t="n" s="468">
+        <v>-1.697336849583011</v>
+      </c>
+      <c r="C13" t="n" s="469">
+        <v>1.3421772799999999E8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="487">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="487">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="483">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="488">
+        <v>1.8488927466117675E-32</v>
+      </c>
+      <c r="C18" t="n" s="489">
+        <v>0.1648687156523508</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="483">
+        <v>42</v>
+      </c>
+      <c r="B19" t="n" s="488">
+        <v>0.1648687156523508</v>
+      </c>
+      <c r="C19" t="n" s="489">
+        <v>1.8488927466117675E-32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="493">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="507">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="507">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="507">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="507">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="503">
+        <v>43</v>
+      </c>
+      <c r="B24" t="n" s="508">
+        <v>-0.9563919952798965</v>
+      </c>
+      <c r="C24" t="n" s="509">
+        <v>-0.6470588235294118</v>
+      </c>
+      <c r="D24" t="n" s="510">
+        <v>0.34641422429888047</v>
+      </c>
+      <c r="E24" t="n" s="511">
+        <v>0.1648687156523508</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="515">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="529">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="529">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="530">
+        <v>1.5815633838428893</v>
+      </c>
+      <c r="B29" t="n" s="531">
+        <v>-0.8424638447411447</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="530">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B30" t="n" s="531">
+        <v>1.3724895791459666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="530">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="B31" t="n" s="531">
+        <v>0.5868961120264211</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="530">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="B32" t="n" s="531">
+        <v>-0.41039697568847644</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="530">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="B33" t="n" s="531">
+        <v>-0.8424638447411447</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="530">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B34" t="n" s="531">
+        <v>0.7141732488095422</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="535">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="549">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="549">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="549">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="549">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="549">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="549">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s" s="549">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="550">
+        <v>10116.0</v>
+      </c>
+      <c r="B39" t="s" s="551">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s" s="552">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s" s="553">
         <v>26</v>
       </c>
-      <c r="E42" t="s" s="415">
-        <v>43</v>
-      </c>
-      <c r="F42" t="n" s="416">
-        <v>6.779366035646001</v>
-      </c>
-      <c r="G42" t="n" s="417">
+      <c r="E39" t="s" s="554">
+        <v>36</v>
+      </c>
+      <c r="F39" t="n" s="555">
+        <v>1.5815633838428893</v>
+      </c>
+      <c r="G39" t="n" s="556">
+        <v>-0.8424638447411447</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="550">
+        <v>10120.0</v>
+      </c>
+      <c r="B40" t="s" s="551">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s" s="552">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="553">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s" s="554">
+        <v>28</v>
+      </c>
+      <c r="F40" t="n" s="555">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="556">
+        <v>1.3724895791459666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="550">
+        <v>10121.0</v>
+      </c>
+      <c r="B41" t="s" s="551">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s" s="552">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s" s="553">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s" s="554">
+        <v>29</v>
+      </c>
+      <c r="F41" t="n" s="555">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G41" t="n" s="556">
+        <v>0.5868961120264211</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="550">
+        <v>10141.0</v>
+      </c>
+      <c r="B42" t="s" s="551">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s" s="552">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s" s="553">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s" s="554">
+        <v>28</v>
+      </c>
+      <c r="F42" t="n" s="555">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G42" t="n" s="556">
+        <v>-0.41039697568847644</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="550">
+        <v>10145.0</v>
+      </c>
+      <c r="B43" t="s" s="551">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s" s="552">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s" s="553">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s" s="554">
+        <v>36</v>
+      </c>
+      <c r="F43" t="n" s="555">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G43" t="n" s="556">
+        <v>-0.8424638447411447</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="550">
+        <v>10152.0</v>
+      </c>
+      <c r="B44" t="s" s="551">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s" s="552">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s" s="553">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s" s="554">
+        <v>29</v>
+      </c>
+      <c r="F44" t="n" s="555">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G44" t="n" s="556">
+        <v>0.7141732488095422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="558">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="586">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="586">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="582">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="587">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="588">
+        <v>0.6578947368421054</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="582">
+        <v>47</v>
+      </c>
+      <c r="B7" t="n" s="587">
+        <v>0.6578947368421054</v>
+      </c>
+      <c r="C7" t="n" s="588">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="592">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="606">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="606">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="602">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="607">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="608">
+        <v>1.5130688316720065</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="602">
+        <v>47</v>
+      </c>
+      <c r="B13" t="n" s="607">
+        <v>1.5130688316720065</v>
+      </c>
+      <c r="C13" t="e" s="608">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="612">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="626">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="626">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="622">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="627">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="628">
+        <v>0.2274702165738092</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="622">
+        <v>47</v>
+      </c>
+      <c r="B19" t="n" s="627">
+        <v>0.2274702165738092</v>
+      </c>
+      <c r="C19" t="n" s="628">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="632">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="646">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="646">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="646">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="646">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="642">
+        <v>48</v>
+      </c>
+      <c r="B24" t="n" s="647">
+        <v>-0.5347765600595688</v>
+      </c>
+      <c r="C24" t="n" s="648">
+        <v>0.6578947368421054</v>
+      </c>
+      <c r="D24" t="n" s="649">
+        <v>0.974515125394985</v>
+      </c>
+      <c r="E24" t="n" s="650">
+        <v>0.2274702165738092</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="654">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="668">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="668">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="669">
+        <v>2.788571132302357</v>
+      </c>
+      <c r="B29" t="n" s="670">
+        <v>-0.11852834836594606</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="669">
+        <v>4.458156643590752</v>
+      </c>
+      <c r="B30" t="n" s="670">
+        <v>0.04343742692652497</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="669">
+        <v>3.209630728612353</v>
+      </c>
+      <c r="B31" t="n" s="670">
+        <v>0.693917515693379</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="669">
+        <v>2.833049853597383</v>
+      </c>
+      <c r="B32" t="n" s="670">
+        <v>-0.27382809099539945</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="669">
+        <v>4.458156643590752</v>
+      </c>
+      <c r="B33" t="n" s="670">
+        <v>0.693917515693379</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="674">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="688">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s" s="688">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s" s="688">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s" s="688">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s" s="688">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s" s="688">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s" s="688">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="689">
+        <v>10122.0</v>
+      </c>
+      <c r="B38" t="s" s="690">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s" s="691">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s" s="692">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s" s="693">
+        <v>36</v>
+      </c>
+      <c r="F38" t="n" s="694">
+        <v>2.788571132302357</v>
+      </c>
+      <c r="G38" t="n" s="695">
+        <v>-0.11852834836594606</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="689">
+        <v>10129.0</v>
+      </c>
+      <c r="B39" t="s" s="690">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s" s="691">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s" s="692">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s" s="693">
+        <v>36</v>
+      </c>
+      <c r="F39" t="n" s="694">
+        <v>4.458156643590752</v>
+      </c>
+      <c r="G39" t="n" s="695">
+        <v>0.04343742692652497</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="689">
+        <v>10130.0</v>
+      </c>
+      <c r="B40" t="s" s="690">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s" s="691">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s" s="692">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s" s="693">
+        <v>36</v>
+      </c>
+      <c r="F40" t="n" s="694">
+        <v>3.209630728612353</v>
+      </c>
+      <c r="G40" t="n" s="695">
+        <v>0.693917515693379</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="689">
+        <v>10135.0</v>
+      </c>
+      <c r="B41" t="s" s="690">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s" s="691">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s" s="692">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s" s="693">
+        <v>36</v>
+      </c>
+      <c r="F41" t="n" s="694">
+        <v>2.833049853597383</v>
+      </c>
+      <c r="G41" t="n" s="695">
+        <v>-0.27382809099539945</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="689">
+        <v>10146.0</v>
+      </c>
+      <c r="B42" t="s" s="690">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s" s="691">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s" s="692">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s" s="693">
+        <v>36</v>
+      </c>
+      <c r="F42" t="n" s="694">
+        <v>4.458156643590752</v>
+      </c>
+      <c r="G42" t="n" s="695">
         <v>0.693917515693379</v>
       </c>
     </row>
